--- a/marvelDataBase.xlsx
+++ b/marvelDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53d1950b8098280d/Dokument/Chalmers/Selfstudies/web/site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53d1950b8098280d/Dokument/Chalmers/Selfstudies/web2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1100" documentId="8_{4A07A081-6370-4A72-BE4F-8096673AA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4741A27-C3C5-4634-AADA-AD5FE153226B}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="8_{4A07A081-6370-4A72-BE4F-8096673AA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C0DEA8-9377-42B5-9817-E295DEBFAF5A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EB36B68-46C3-4C45-AF1B-13B04053E69B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="223">
   <si>
     <t>Character</t>
   </si>
@@ -206,18 +206,9 @@
     <t>Scarlet Witch / Wanda Maximoff</t>
   </si>
   <si>
-    <t>J.A.R.V.I.S / Vision</t>
-  </si>
-  <si>
     <t>Ultron</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
     <t>Antman / Scott Lang</t>
   </si>
   <si>
@@ -702,6 +693,18 @@
   </si>
   <si>
     <t>images\vision.jpg</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F701081-F0DA-44EE-B3F3-1DA783235AAA}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,9 +1092,11 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="34.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,13 +1119,19 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1146,10 +1157,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1175,12 +1189,15 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1204,10 +1221,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1230,13 +1250,16 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1262,10 +1285,13 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1291,10 +1317,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1320,10 +1349,13 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1349,10 +1381,13 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1378,10 +1413,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1404,13 +1442,13 @@
         <v>1969</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1436,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1465,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1494,10 +1532,10 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1523,10 +1561,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1552,12 +1590,12 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1581,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1610,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1639,12 +1677,12 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1668,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1697,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1726,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1755,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1781,13 +1819,13 @@
         <v>1000</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1810,13 +1848,13 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1839,13 +1877,13 @@
         <v>1979</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1871,13 +1909,10 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1900,16 +1935,13 @@
         <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1932,16 +1964,13 @@
         <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1964,16 +1993,13 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1996,13 +2022,13 @@
         <v>1950</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2025,10 +2051,10 @@
         <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2057,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2086,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2115,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2144,12 +2170,12 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2173,12 +2199,12 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2202,12 +2228,12 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -2231,12 +2257,12 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -2260,12 +2286,12 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2289,12 +2315,12 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2318,12 +2344,12 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2347,12 +2373,12 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2376,12 +2402,12 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -2405,12 +2431,12 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -2434,12 +2460,12 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -2463,12 +2489,12 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2492,12 +2518,12 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2521,12 +2547,12 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -2550,12 +2576,12 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2579,12 +2605,12 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2605,15 +2631,15 @@
         <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2637,12 +2663,12 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2663,15 +2689,15 @@
         <v>1890</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2695,12 +2721,12 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2724,12 +2750,12 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -2753,12 +2779,12 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2782,12 +2808,12 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2811,12 +2837,12 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2840,12 +2866,12 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2869,12 +2895,12 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -2898,12 +2924,12 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2927,12 +2953,12 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2956,12 +2982,12 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2985,12 +3011,12 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -3014,12 +3040,12 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3043,12 +3069,12 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -3072,12 +3098,12 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -3101,12 +3127,12 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -3130,12 +3156,12 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3147,7 +3173,7 @@
         <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -3159,12 +3185,12 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3176,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -3188,12 +3214,12 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3205,7 +3231,7 @@
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -3217,12 +3243,12 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -3234,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -3246,12 +3272,12 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -3263,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -3275,12 +3301,12 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -3292,7 +3318,7 @@
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -3304,12 +3330,12 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -3321,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -3333,12 +3359,12 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -3350,7 +3376,7 @@
         <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -3359,15 +3385,15 @@
         <v>1873</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -3379,7 +3405,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
@@ -3391,12 +3417,12 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -3408,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -3417,15 +3443,15 @@
         <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -3437,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -3446,15 +3472,15 @@
         <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -3466,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -3478,12 +3504,12 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3495,7 +3521,7 @@
         <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -3507,12 +3533,12 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -3524,7 +3550,7 @@
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F84" t="s">
         <v>27</v>
@@ -3536,12 +3562,12 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -3553,7 +3579,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -3562,15 +3588,15 @@
         <v>-3000</v>
       </c>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -3582,7 +3608,7 @@
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -3594,12 +3620,12 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -3611,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -3623,12 +3649,12 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -3640,7 +3666,7 @@
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F88" t="s">
         <v>27</v>
@@ -3649,21 +3675,21 @@
         <v>36</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -3678,21 +3704,21 @@
         <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3707,21 +3733,21 @@
         <v>2015</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -3736,21 +3762,21 @@
         <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -3765,21 +3791,21 @@
         <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -3794,10 +3820,10 @@
         <v>2015</v>
       </c>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
